--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl28-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl28-Ccr10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Ccl28</t>
+  </si>
+  <si>
+    <t>Ccr10</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Ccl28</t>
-  </si>
-  <si>
-    <t>Ccr10</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,14 +519,14 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
         <v>1</v>
       </c>
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.006581</v>
+        <v>0.115543</v>
       </c>
       <c r="H2">
-        <v>0.019743</v>
+        <v>0.346629</v>
       </c>
       <c r="I2">
-        <v>0.02898608174770965</v>
+        <v>0.7111155332715143</v>
       </c>
       <c r="J2">
-        <v>0.02898608174770965</v>
+        <v>0.7111155332715143</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2056166666666667</v>
+        <v>0.05145833333333334</v>
       </c>
       <c r="N2">
-        <v>0.61685</v>
+        <v>0.154375</v>
       </c>
       <c r="O2">
-        <v>0.3876180888860402</v>
+        <v>0.2409462730781657</v>
       </c>
       <c r="P2">
-        <v>0.3876180888860402</v>
+        <v>0.2409462730781657</v>
       </c>
       <c r="Q2">
-        <v>0.001353163283333333</v>
+        <v>0.005945650208333333</v>
       </c>
       <c r="R2">
-        <v>0.01217846955</v>
+        <v>0.05351085187500001</v>
       </c>
       <c r="S2">
-        <v>0.01123552961134175</v>
+        <v>0.1713406374697637</v>
       </c>
       <c r="T2">
-        <v>0.01123552961134175</v>
+        <v>0.1713406374697637</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.006581</v>
+        <v>0.115543</v>
       </c>
       <c r="H3">
-        <v>0.019743</v>
+        <v>0.346629</v>
       </c>
       <c r="I3">
-        <v>0.02898608174770965</v>
+        <v>0.7111155332715143</v>
       </c>
       <c r="J3">
-        <v>0.02898608174770965</v>
+        <v>0.7111155332715143</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.418253</v>
       </c>
       <c r="O3">
-        <v>0.2628230988584793</v>
+        <v>0.6528032489312521</v>
       </c>
       <c r="P3">
-        <v>0.2628230988584793</v>
+        <v>0.6528032489312521</v>
       </c>
       <c r="Q3">
-        <v>0.0009175076643333333</v>
+        <v>0.01610873545966667</v>
       </c>
       <c r="R3">
-        <v>0.008257568978999999</v>
+        <v>0.144978619137</v>
       </c>
       <c r="S3">
-        <v>0.007618211828698256</v>
+        <v>0.4642185304851245</v>
       </c>
       <c r="T3">
-        <v>0.007618211828698256</v>
+        <v>0.4642185304851245</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.006581</v>
+        <v>0.115543</v>
       </c>
       <c r="H4">
-        <v>0.019743</v>
+        <v>0.346629</v>
       </c>
       <c r="I4">
-        <v>0.02898608174770965</v>
+        <v>0.7111155332715143</v>
       </c>
       <c r="J4">
-        <v>0.02898608174770965</v>
+        <v>0.7111155332715143</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1854276666666667</v>
+        <v>0.02269166666666667</v>
       </c>
       <c r="N4">
-        <v>0.556283</v>
+        <v>0.068075</v>
       </c>
       <c r="O4">
-        <v>0.3495588122554804</v>
+        <v>0.1062504779905822</v>
       </c>
       <c r="P4">
-        <v>0.3495588122554804</v>
+        <v>0.1062504779905822</v>
       </c>
       <c r="Q4">
-        <v>0.001220299474333333</v>
+        <v>0.002621863241666667</v>
       </c>
       <c r="R4">
-        <v>0.010982695269</v>
+        <v>0.023596769175</v>
       </c>
       <c r="S4">
-        <v>0.01013234030766965</v>
+        <v>0.07555636531662617</v>
       </c>
       <c r="T4">
-        <v>0.01013234030766965</v>
+        <v>0.07555636531662617</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
@@ -720,16 +720,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.115543</v>
+        <v>0.04693833333333333</v>
       </c>
       <c r="H5">
-        <v>0.346629</v>
+        <v>0.140815</v>
       </c>
       <c r="I5">
-        <v>0.508910324171952</v>
+        <v>0.2888844667284857</v>
       </c>
       <c r="J5">
-        <v>0.508910324171952</v>
+        <v>0.2888844667284857</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2056166666666667</v>
+        <v>0.05145833333333334</v>
       </c>
       <c r="N5">
-        <v>0.61685</v>
+        <v>0.154375</v>
       </c>
       <c r="O5">
-        <v>0.3876180888860402</v>
+        <v>0.2409462730781657</v>
       </c>
       <c r="P5">
-        <v>0.3876180888860402</v>
+        <v>0.2409462730781657</v>
       </c>
       <c r="Q5">
-        <v>0.02375756651666667</v>
+        <v>0.002415368402777778</v>
       </c>
       <c r="R5">
-        <v>0.21381809865</v>
+        <v>0.021738315625</v>
       </c>
       <c r="S5">
-        <v>0.1972628472699073</v>
+        <v>0.06960563560840199</v>
       </c>
       <c r="T5">
-        <v>0.1972628472699073</v>
+        <v>0.06960563560840199</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -782,16 +782,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.115543</v>
+        <v>0.04693833333333333</v>
       </c>
       <c r="H6">
-        <v>0.346629</v>
+        <v>0.140815</v>
       </c>
       <c r="I6">
-        <v>0.508910324171952</v>
+        <v>0.2888844667284857</v>
       </c>
       <c r="J6">
-        <v>0.508910324171952</v>
+        <v>0.2888844667284857</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,22 +806,22 @@
         <v>0.418253</v>
       </c>
       <c r="O6">
-        <v>0.2628230988584793</v>
+        <v>0.6528032489312521</v>
       </c>
       <c r="P6">
-        <v>0.2628230988584793</v>
+        <v>0.6528032489312521</v>
       </c>
       <c r="Q6">
-        <v>0.01610873545966667</v>
+        <v>0.006544032910555555</v>
       </c>
       <c r="R6">
-        <v>0.144978619137</v>
+        <v>0.058896296195</v>
       </c>
       <c r="S6">
-        <v>0.1337533884399457</v>
+        <v>0.1885847184461277</v>
       </c>
       <c r="T6">
-        <v>0.1337533884399457</v>
+        <v>0.1885847184461277</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -844,16 +844,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.115543</v>
+        <v>0.04693833333333333</v>
       </c>
       <c r="H7">
-        <v>0.346629</v>
+        <v>0.140815</v>
       </c>
       <c r="I7">
-        <v>0.508910324171952</v>
+        <v>0.2888844667284857</v>
       </c>
       <c r="J7">
-        <v>0.508910324171952</v>
+        <v>0.2888844667284857</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -862,214 +862,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1854276666666667</v>
+        <v>0.02269166666666667</v>
       </c>
       <c r="N7">
-        <v>0.556283</v>
+        <v>0.068075</v>
       </c>
       <c r="O7">
-        <v>0.3495588122554804</v>
+        <v>0.1062504779905822</v>
       </c>
       <c r="P7">
-        <v>0.3495588122554804</v>
+        <v>0.1062504779905822</v>
       </c>
       <c r="Q7">
-        <v>0.02142486888966667</v>
+        <v>0.001065109013888889</v>
       </c>
       <c r="R7">
-        <v>0.192823820007</v>
+        <v>0.009585981124999999</v>
       </c>
       <c r="S7">
-        <v>0.1778940884620991</v>
+        <v>0.03069411267395605</v>
       </c>
       <c r="T7">
-        <v>0.1778940884620991</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.104916</v>
-      </c>
-      <c r="H8">
-        <v>0.314748</v>
-      </c>
-      <c r="I8">
-        <v>0.4621035940803382</v>
-      </c>
-      <c r="J8">
-        <v>0.4621035940803382</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.2056166666666667</v>
-      </c>
-      <c r="N8">
-        <v>0.61685</v>
-      </c>
-      <c r="O8">
-        <v>0.3876180888860402</v>
-      </c>
-      <c r="P8">
-        <v>0.3876180888860402</v>
-      </c>
-      <c r="Q8">
-        <v>0.0215724782</v>
-      </c>
-      <c r="R8">
-        <v>0.1941523038</v>
-      </c>
-      <c r="S8">
-        <v>0.1791197120047912</v>
-      </c>
-      <c r="T8">
-        <v>0.1791197120047912</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.104916</v>
-      </c>
-      <c r="H9">
-        <v>0.314748</v>
-      </c>
-      <c r="I9">
-        <v>0.4621035940803382</v>
-      </c>
-      <c r="J9">
-        <v>0.4621035940803382</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.1394176666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.418253</v>
-      </c>
-      <c r="O9">
-        <v>0.2628230988584793</v>
-      </c>
-      <c r="P9">
-        <v>0.2628230988584793</v>
-      </c>
-      <c r="Q9">
-        <v>0.014627143916</v>
-      </c>
-      <c r="R9">
-        <v>0.131644295244</v>
-      </c>
-      <c r="S9">
-        <v>0.1214514985898353</v>
-      </c>
-      <c r="T9">
-        <v>0.1214514985898353</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.104916</v>
-      </c>
-      <c r="H10">
-        <v>0.314748</v>
-      </c>
-      <c r="I10">
-        <v>0.4621035940803382</v>
-      </c>
-      <c r="J10">
-        <v>0.4621035940803382</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.1854276666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.556283</v>
-      </c>
-      <c r="O10">
-        <v>0.3495588122554804</v>
-      </c>
-      <c r="P10">
-        <v>0.3495588122554804</v>
-      </c>
-      <c r="Q10">
-        <v>0.019454329076</v>
-      </c>
-      <c r="R10">
-        <v>0.175088961684</v>
-      </c>
-      <c r="S10">
-        <v>0.1615323834857117</v>
-      </c>
-      <c r="T10">
-        <v>0.1615323834857117</v>
+        <v>0.03069411267395605</v>
       </c>
     </row>
   </sheetData>
